--- a/_RESULTS/Error_budget/error_budget_area2.xlsx
+++ b/_RESULTS/Error_budget/error_budget_area2.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -379,17 +379,27 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>VAR(OK)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>MSPE</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Nugget</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Non-expl var of model</t>
+          <t>S_nugget</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>VAR(TOTAL)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>VAR(DATA)</t>
         </is>
       </c>
     </row>
@@ -404,13 +414,17 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
+        <v>0.3542437152146415</v>
+      </c>
+      <c r="E2" t="n">
         <v>6.104421207852351</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>1.067</v>
       </c>
-      <c r="F2" t="n">
-        <v>5.037421207852351</v>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>6.084087178003832</v>
       </c>
     </row>
     <row r="3">
@@ -424,13 +438,17 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
+        <v>0.5795627286992455</v>
+      </c>
+      <c r="E3" t="n">
         <v>5.90785467806811</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>1.696</v>
       </c>
-      <c r="F3" t="n">
-        <v>4.211854678068111</v>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>6.084087178003832</v>
       </c>
     </row>
     <row r="4">
@@ -444,13 +462,17 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
+        <v>0.7811871769957017</v>
+      </c>
+      <c r="E4" t="n">
         <v>5.739350436129733</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>2.297</v>
       </c>
-      <c r="F4" t="n">
-        <v>3.442350436129733</v>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>6.084087178003832</v>
       </c>
     </row>
     <row r="5">
@@ -464,13 +486,17 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
+        <v>0.9607850150456215</v>
+      </c>
+      <c r="E5" t="n">
         <v>5.651751158741311</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>2.743</v>
       </c>
-      <c r="F5" t="n">
-        <v>2.908751158741311</v>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>6.084087178003832</v>
       </c>
     </row>
     <row r="6">
@@ -484,13 +510,17 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
+        <v>1.0128557523289</v>
+      </c>
+      <c r="E6" t="n">
         <v>5.641433115291756</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>3.063</v>
       </c>
-      <c r="F6" t="n">
-        <v>2.578433115291756</v>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>6.084087178003832</v>
       </c>
     </row>
     <row r="7">
@@ -504,13 +534,17 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
+        <v>1.066439333051098</v>
+      </c>
+      <c r="E7" t="n">
         <v>5.636778839762298</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>3.301</v>
       </c>
-      <c r="F7" t="n">
-        <v>2.335778839762299</v>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>6.084087178003832</v>
       </c>
     </row>
     <row r="8">
@@ -524,13 +558,17 @@
         <v>7</v>
       </c>
       <c r="D8" t="n">
+        <v>1.082139319464439</v>
+      </c>
+      <c r="E8" t="n">
         <v>5.634961651046167</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>3.508</v>
       </c>
-      <c r="F8" t="n">
-        <v>2.126961651046167</v>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>6.084087178003832</v>
       </c>
     </row>
     <row r="9">
@@ -544,13 +582,17 @@
         <v>8</v>
       </c>
       <c r="D9" t="n">
+        <v>1.102006110258462</v>
+      </c>
+      <c r="E9" t="n">
         <v>5.633633501109285</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>3.706</v>
       </c>
-      <c r="F9" t="n">
-        <v>1.927633501109285</v>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="n">
+        <v>6.084087178003832</v>
       </c>
     </row>
     <row r="10">
@@ -564,13 +606,89 @@
         <v>9</v>
       </c>
       <c r="D10" t="n">
+        <v>1.123630734343489</v>
+      </c>
+      <c r="E10" t="n">
         <v>5.62339082639934</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>3.813</v>
       </c>
-      <c r="F10" t="n">
-        <v>1.81039082639934</v>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>6.084087178003832</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>130000</v>
+      </c>
+      <c r="C11" t="n">
+        <v>10</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.146000103602855</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5.632906103503426</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3.813</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="n">
+        <v>6.084087178003832</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>130000</v>
+      </c>
+      <c r="C12" t="n">
+        <v>11</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.154623899342249</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5.63576651123089</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3.813</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>6.084087178003832</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>130000</v>
+      </c>
+      <c r="C13" t="n">
+        <v>12</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.156557324888634</v>
+      </c>
+      <c r="E13" t="n">
+        <v>5.63690469376062</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3.813</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="n">
+        <v>6.084087178003832</v>
       </c>
     </row>
   </sheetData>

--- a/_RESULTS/Error_budget/error_budget_area2.xlsx
+++ b/_RESULTS/Error_budget/error_budget_area2.xlsx
@@ -408,23 +408,23 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3542437152146415</v>
+        <v>0.3949082593279525</v>
       </c>
       <c r="E2" t="n">
-        <v>6.104421207852351</v>
+        <v>6.028501476955377</v>
       </c>
       <c r="F2" t="n">
-        <v>1.067</v>
+        <v>1.0685</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>6.084087178003832</v>
+        <v>6.023366767218427</v>
       </c>
     </row>
     <row r="3">
@@ -432,23 +432,23 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5795627286992455</v>
+        <v>0.6258570217663707</v>
       </c>
       <c r="E3" t="n">
-        <v>5.90785467806811</v>
+        <v>5.809960204749803</v>
       </c>
       <c r="F3" t="n">
-        <v>1.696</v>
+        <v>1.7035</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>6.084087178003832</v>
+        <v>6.023366767218427</v>
       </c>
     </row>
     <row r="4">
@@ -456,23 +456,23 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7811871769957017</v>
+        <v>0.8669973505105274</v>
       </c>
       <c r="E4" t="n">
-        <v>5.739350436129733</v>
+        <v>5.626263271706533</v>
       </c>
       <c r="F4" t="n">
-        <v>2.297</v>
+        <v>2.2965</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>6.084087178003832</v>
+        <v>6.023366767218427</v>
       </c>
     </row>
     <row r="5">
@@ -480,23 +480,23 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9607850150456215</v>
+        <v>1.047718716575758</v>
       </c>
       <c r="E5" t="n">
-        <v>5.651751158741311</v>
+        <v>5.537035634286431</v>
       </c>
       <c r="F5" t="n">
-        <v>2.743</v>
+        <v>2.737</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>6.084087178003832</v>
+        <v>6.023366767218427</v>
       </c>
     </row>
     <row r="6">
@@ -504,23 +504,23 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>1.0128557523289</v>
+        <v>1.087953118516857</v>
       </c>
       <c r="E6" t="n">
-        <v>5.641433115291756</v>
+        <v>5.517305282778459</v>
       </c>
       <c r="F6" t="n">
-        <v>3.063</v>
+        <v>3.0518</v>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>6.084087178003832</v>
+        <v>6.023366767218427</v>
       </c>
     </row>
     <row r="7">
@@ -528,23 +528,23 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="C7" t="n">
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>1.066439333051098</v>
+        <v>1.110589340716957</v>
       </c>
       <c r="E7" t="n">
-        <v>5.636778839762298</v>
+        <v>5.510908454821684</v>
       </c>
       <c r="F7" t="n">
-        <v>3.301</v>
+        <v>3.2577</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>6.084087178003832</v>
+        <v>6.023366767218427</v>
       </c>
     </row>
     <row r="8">
@@ -552,23 +552,23 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="C8" t="n">
         <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>1.082139319464439</v>
+        <v>1.122289025889459</v>
       </c>
       <c r="E8" t="n">
-        <v>5.634961651046167</v>
+        <v>5.506462332297233</v>
       </c>
       <c r="F8" t="n">
-        <v>3.508</v>
+        <v>3.4682</v>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>6.084087178003832</v>
+        <v>6.023366767218427</v>
       </c>
     </row>
     <row r="9">
@@ -576,23 +576,23 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="C9" t="n">
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>1.102006110258462</v>
+        <v>1.139846817848541</v>
       </c>
       <c r="E9" t="n">
-        <v>5.633633501109285</v>
+        <v>5.505251028771718</v>
       </c>
       <c r="F9" t="n">
-        <v>3.706</v>
+        <v>3.6637</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>6.084087178003832</v>
+        <v>6.023366767218427</v>
       </c>
     </row>
     <row r="10">
@@ -600,23 +600,23 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="C10" t="n">
         <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>1.123630734343489</v>
+        <v>1.158269586821367</v>
       </c>
       <c r="E10" t="n">
-        <v>5.62339082639934</v>
+        <v>5.49643823285963</v>
       </c>
       <c r="F10" t="n">
-        <v>3.813</v>
+        <v>3.771</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>6.084087178003832</v>
+        <v>6.023366767218427</v>
       </c>
     </row>
     <row r="11">
@@ -624,23 +624,23 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="C11" t="n">
         <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>1.146000103602855</v>
+        <v>1.180662575226037</v>
       </c>
       <c r="E11" t="n">
-        <v>5.632906103503426</v>
+        <v>5.508101739920766</v>
       </c>
       <c r="F11" t="n">
-        <v>3.813</v>
+        <v>3.771</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>6.084087178003832</v>
+        <v>6.023366767218427</v>
       </c>
     </row>
     <row r="12">
@@ -648,23 +648,23 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="C12" t="n">
         <v>11</v>
       </c>
       <c r="D12" t="n">
-        <v>1.154623899342249</v>
+        <v>1.188355079965504</v>
       </c>
       <c r="E12" t="n">
-        <v>5.63576651123089</v>
+        <v>5.511061940289639</v>
       </c>
       <c r="F12" t="n">
-        <v>3.813</v>
+        <v>3.771</v>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>6.084087178003832</v>
+        <v>6.023366767218427</v>
       </c>
     </row>
     <row r="13">
@@ -672,23 +672,23 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="C13" t="n">
         <v>12</v>
       </c>
       <c r="D13" t="n">
-        <v>1.156557324888634</v>
+        <v>1.190453141948693</v>
       </c>
       <c r="E13" t="n">
-        <v>5.63690469376062</v>
+        <v>5.512414360966522</v>
       </c>
       <c r="F13" t="n">
-        <v>3.813</v>
+        <v>3.771</v>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>6.084087178003832</v>
+        <v>6.023366767218427</v>
       </c>
     </row>
   </sheetData>

--- a/_RESULTS/Error_budget/error_budget_area2.xlsx
+++ b/_RESULTS/Error_budget/error_budget_area2.xlsx
@@ -414,7 +414,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3949082593279525</v>
+        <v>0.3949114344285576</v>
       </c>
       <c r="E2" t="n">
         <v>6.028501476955377</v>
@@ -438,7 +438,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6258570217663707</v>
+        <v>0.6259611371816565</v>
       </c>
       <c r="E3" t="n">
         <v>5.809960204749803</v>
@@ -462,7 +462,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8669973505105274</v>
+        <v>0.8669950399635609</v>
       </c>
       <c r="E4" t="n">
         <v>5.626263271706533</v>
@@ -486,7 +486,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>1.047718716575758</v>
+        <v>1.047675604574988</v>
       </c>
       <c r="E5" t="n">
         <v>5.537035634286431</v>
@@ -510,7 +510,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>1.087953118516857</v>
+        <v>1.087915862382207</v>
       </c>
       <c r="E6" t="n">
         <v>5.517305282778459</v>
@@ -534,7 +534,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>1.110589340716957</v>
+        <v>1.110559757034621</v>
       </c>
       <c r="E7" t="n">
         <v>5.510908454821684</v>
@@ -558,7 +558,7 @@
         <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>1.122289025889459</v>
+        <v>1.122268503940705</v>
       </c>
       <c r="E8" t="n">
         <v>5.506462332297233</v>
@@ -582,7 +582,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>1.139846817848541</v>
+        <v>1.139822041147919</v>
       </c>
       <c r="E9" t="n">
         <v>5.505251028771718</v>
@@ -606,7 +606,7 @@
         <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>1.158269586821367</v>
+        <v>1.158245506139628</v>
       </c>
       <c r="E10" t="n">
         <v>5.49643823285963</v>
@@ -630,7 +630,7 @@
         <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>1.180662575226037</v>
+        <v>1.180622572952693</v>
       </c>
       <c r="E11" t="n">
         <v>5.508101739920766</v>
@@ -654,7 +654,7 @@
         <v>11</v>
       </c>
       <c r="D12" t="n">
-        <v>1.188355079965504</v>
+        <v>1.188307505922228</v>
       </c>
       <c r="E12" t="n">
         <v>5.511061940289639</v>
@@ -678,7 +678,7 @@
         <v>12</v>
       </c>
       <c r="D13" t="n">
-        <v>1.190453141948693</v>
+        <v>1.190402897747897</v>
       </c>
       <c r="E13" t="n">
         <v>5.512414360966522</v>

--- a/_RESULTS/Error_budget/error_budget_area2.xlsx
+++ b/_RESULTS/Error_budget/error_budget_area2.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -414,7 +414,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3949114344285576</v>
+        <v>0.3947601365114514</v>
       </c>
       <c r="E2" t="n">
         <v>6.028501476955377</v>
@@ -438,7 +438,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6259611371816565</v>
+        <v>0.6257325264438633</v>
       </c>
       <c r="E3" t="n">
         <v>5.809960204749803</v>
@@ -462,7 +462,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8669950399635609</v>
+        <v>0.8668678998307107</v>
       </c>
       <c r="E4" t="n">
         <v>5.626263271706533</v>
@@ -486,7 +486,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>1.047675604574988</v>
+        <v>1.047628551158611</v>
       </c>
       <c r="E5" t="n">
         <v>5.537035634286431</v>
@@ -496,198 +496,6 @@
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>6.023366767218427</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>120000</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.087915862382207</v>
-      </c>
-      <c r="E6" t="n">
-        <v>5.517305282778459</v>
-      </c>
-      <c r="F6" t="n">
-        <v>3.0518</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="n">
-        <v>6.023366767218427</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>120000</v>
-      </c>
-      <c r="C7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.110559757034621</v>
-      </c>
-      <c r="E7" t="n">
-        <v>5.510908454821684</v>
-      </c>
-      <c r="F7" t="n">
-        <v>3.2577</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="n">
-        <v>6.023366767218427</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>120000</v>
-      </c>
-      <c r="C8" t="n">
-        <v>7</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.122268503940705</v>
-      </c>
-      <c r="E8" t="n">
-        <v>5.506462332297233</v>
-      </c>
-      <c r="F8" t="n">
-        <v>3.4682</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="n">
-        <v>6.023366767218427</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>120000</v>
-      </c>
-      <c r="C9" t="n">
-        <v>8</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1.139822041147919</v>
-      </c>
-      <c r="E9" t="n">
-        <v>5.505251028771718</v>
-      </c>
-      <c r="F9" t="n">
-        <v>3.6637</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="n">
-        <v>6.023366767218427</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>120000</v>
-      </c>
-      <c r="C10" t="n">
-        <v>9</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1.158245506139628</v>
-      </c>
-      <c r="E10" t="n">
-        <v>5.49643823285963</v>
-      </c>
-      <c r="F10" t="n">
-        <v>3.771</v>
-      </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="n">
-        <v>6.023366767218427</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>120000</v>
-      </c>
-      <c r="C11" t="n">
-        <v>10</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1.180622572952693</v>
-      </c>
-      <c r="E11" t="n">
-        <v>5.508101739920766</v>
-      </c>
-      <c r="F11" t="n">
-        <v>3.771</v>
-      </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="n">
-        <v>6.023366767218427</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>120000</v>
-      </c>
-      <c r="C12" t="n">
-        <v>11</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1.188307505922228</v>
-      </c>
-      <c r="E12" t="n">
-        <v>5.511061940289639</v>
-      </c>
-      <c r="F12" t="n">
-        <v>3.771</v>
-      </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="n">
-        <v>6.023366767218427</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>120000</v>
-      </c>
-      <c r="C13" t="n">
-        <v>12</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1.190402897747897</v>
-      </c>
-      <c r="E13" t="n">
-        <v>5.512414360966522</v>
-      </c>
-      <c r="F13" t="n">
-        <v>3.771</v>
-      </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="n">
         <v>6.023366767218427</v>
       </c>
     </row>

--- a/_RESULTS/Error_budget/error_budget_area2.xlsx
+++ b/_RESULTS/Error_budget/error_budget_area2.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -408,23 +408,23 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>120000</v>
+        <v>50000</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3947601365114514</v>
+        <v>0.4806733659468704</v>
       </c>
       <c r="E2" t="n">
-        <v>6.028501476955377</v>
+        <v>3.728306393057234</v>
       </c>
       <c r="F2" t="n">
-        <v>1.0685</v>
+        <v>0.9524</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>6.023366767218427</v>
+        <v>3.731062336476929</v>
       </c>
     </row>
     <row r="3">
@@ -432,71 +432,23 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>120000</v>
+        <v>50000</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6257325264438633</v>
+        <v>0.7652061428218204</v>
       </c>
       <c r="E3" t="n">
-        <v>5.809960204749803</v>
+        <v>3.605889614447373</v>
       </c>
       <c r="F3" t="n">
-        <v>1.7035</v>
+        <v>1.4484</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>6.023366767218427</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>120000</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.8668678998307107</v>
-      </c>
-      <c r="E4" t="n">
-        <v>5.626263271706533</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2.2965</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="n">
-        <v>6.023366767218427</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>120000</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.047628551158611</v>
-      </c>
-      <c r="E5" t="n">
-        <v>5.537035634286431</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2.737</v>
-      </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="n">
-        <v>6.023366767218427</v>
+        <v>3.731062336476929</v>
       </c>
     </row>
   </sheetData>

--- a/_RESULTS/Error_budget/error_budget_area2.xlsx
+++ b/_RESULTS/Error_budget/error_budget_area2.xlsx
@@ -414,7 +414,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4806733659468704</v>
+        <v>0.4812034625204658</v>
       </c>
       <c r="E2" t="n">
         <v>3.728306393057234</v>
@@ -438,7 +438,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7652061428218204</v>
+        <v>0.7659577754940337</v>
       </c>
       <c r="E3" t="n">
         <v>3.605889614447373</v>
